--- a/municipal/დემოგრაფია/თვითმკვლელობით გარდაცვლილთა რიცხოვნობა/ყაზბეგი.xlsx
+++ b/municipal/დემოგრაფია/თვითმკვლელობით გარდაცვლილთა რიცხოვნობა/ყაზბეგი.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\დემოგრაფია\12 - ცხრილები და რელიზები\მუნიციპალური სტატისტიკა (რუკა)\ქართული\cx 32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\თვითმკვლ. გარდაცვლილები\თვითმკვლელობით გარდაცვლილთა რიცხოვნობა\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B5BD42-104B-4AEB-B04E-6D253C7D9699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729F198E-2238-48F6-8E89-A39D04C3F9F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="630" windowWidth="12675" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="27045" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterateCount="10000"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>წელი</t>
   </si>
@@ -36,9 +36,6 @@
     <t>თვითმკვლელობით (სუიციდით) გარდაცვლილთა რიცხოვნობა</t>
   </si>
   <si>
-    <t>შენიშვნა: ეყრდნობა რეგისტრირებულ მონაცემებს</t>
-  </si>
-  <si>
     <t>2015-2017 წლების გარდაცვალების მიზეზების დაზუსტება განხორციელდა დაავადებათა კონტროლისა და საზოგადოებრივი ჯანმრთელობის ეროვნული ცენტრიდან მიღებული ინფორმაციის (ვერბალური აუტოფსია, კიბოს რეგისტრი და სტაციონალური ელექტრონული სისტემა) საფუძველზე</t>
   </si>
   <si>
@@ -46,13 +43,60 @@
   </si>
   <si>
     <t xml:space="preserve">თვითმკვლელობით (სუიციდით)* გარდაცვლილთა რიცხოვნობა ყაზბეგის მუნიციპალიტეტში </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>შენიშვნა:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="8"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> „ ...“ - მონაცემი არ არის ან კონფიდენციალურია.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>წყარო:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ეყრდნობა რეგისტრირებულ მონაცემებს</t>
+    </r>
+  </si>
+  <si>
+    <t>…</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +153,28 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Sylfaen"/>
@@ -129,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -189,13 +255,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
@@ -230,13 +316,14 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,21 +606,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" style="5" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" style="4" customWidth="1"/>
     <col min="3" max="44" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="45" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -553,7 +640,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -565,79 +652,100 @@
       <c r="A5" s="8">
         <v>2014</v>
       </c>
-      <c r="B5" s="13">
-        <v>0</v>
+      <c r="B5" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>2015</v>
       </c>
-      <c r="B6" s="14">
-        <v>1</v>
+      <c r="B6" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>2016</v>
       </c>
-      <c r="B7" s="14">
-        <v>0</v>
+      <c r="B7" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>2017</v>
       </c>
-      <c r="B8" s="14">
-        <v>1</v>
+      <c r="B8" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>2018</v>
       </c>
-      <c r="B9" s="14">
-        <v>0</v>
+      <c r="B9" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>2019</v>
       </c>
-      <c r="B10" s="14">
-        <v>1</v>
+      <c r="B10" s="15" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>2020</v>
       </c>
-      <c r="B11" s="14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10">
+      <c r="B11" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
         <v>2021</v>
       </c>
-      <c r="B12" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
-        <v>4</v>
+      <c r="B12" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9">
+        <v>2022</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
